--- a/Ordenamiento recursivo.xlsx
+++ b/Ordenamiento recursivo.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brayan\Downloads\T(N) ORDENAMIENTO\T(N) ORDENAMIENTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{36F6BED6-80C5-4705-85FB-0419AB1F4551}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3390EC80-0178-436E-8D45-F821FDF2F13C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="2160" windowWidth="16200" windowHeight="9375" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2160" yWindow="2160" windowWidth="16200" windowHeight="9375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="MergeSort" sheetId="2" r:id="rId1"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId2"/>
+    <sheet name="T(n) igual" sheetId="2" r:id="rId1"/>
+    <sheet name="RadixSort" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,15 +32,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
   <si>
     <t>n</t>
   </si>
   <si>
-    <t>t(n) = 2t(n/2) = 2n + log2(n)</t>
+    <t>MergeSort</t>
   </si>
   <si>
-    <t>tiempo (ms)</t>
+    <t>QuickSort</t>
+  </si>
+  <si>
+    <t>t(n) = t(n/2) = n + log2(n)</t>
+  </si>
+  <si>
+    <t>tiempo (ms) QuickSort</t>
+  </si>
+  <si>
+    <t>tiempo (ms) MergeSort</t>
+  </si>
+  <si>
+    <t>Residuo</t>
+  </si>
+  <si>
+    <t>tiempo (ms)Residuo</t>
+  </si>
+  <si>
+    <t>8-bits</t>
   </si>
 </sst>
 </file>
@@ -110,6 +128,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>tiempo (ms) MergeSort</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -150,11 +193,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>MergeSort!$B$2</c:f>
+              <c:f>'T(n) igual'!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>tiempo (ms)</c:v>
+                  <c:v>tiempo (ms) MergeSort</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -183,9 +226,23 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>MergeSort!$A$3:$A$11</c:f>
+              <c:f>'T(n) igual'!$A$3:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -221,7 +278,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>MergeSort!$B$3:$B$11</c:f>
+              <c:f>'T(n) igual'!$B$3:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -504,11 +561,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>MergeSort!$C$2</c:f>
+              <c:f>'T(n) igual'!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>t(n) = 2t(n/2) = 2n + log2(n)</c:v>
+                  <c:v>t(n) = t(n/2) = n + log2(n)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -539,7 +596,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>MergeSort!$A$3:$A$11</c:f>
+              <c:f>'T(n) igual'!$A$3:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -575,36 +632,36 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>MergeSort!$C$3:$C$11</c:f>
+              <c:f>'T(n) igual'!$C$3:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>23.321928094887362</c:v>
+                  <c:v>13.321928094887362</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33.906890595608516</c:v>
+                  <c:v>18.90689059560852</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44.321928094887362</c:v>
+                  <c:v>24.321928094887362</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>54.643856189774723</c:v>
+                  <c:v>29.643856189774723</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>64.906890595608516</c:v>
+                  <c:v>34.906890595608516</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>75.129283016944967</c:v>
+                  <c:v>40.129283016944967</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>85.321928094887369</c:v>
+                  <c:v>45.321928094887362</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>95.491853096329677</c:v>
+                  <c:v>50.491853096329677</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>105.64385618977472</c:v>
+                  <c:v>55.643856189774723</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -803,6 +860,763 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'T(n) igual'!$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>tiempo (ms) QuickSort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'T(n) igual'!$A$15:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'T(n) igual'!$B$15:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>8.5089199999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.2440499999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.9595500000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>77.076899999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>61.780700000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>62.674599999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>66.614599999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>62.211100000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>65.356399999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-43B4-4D9D-B6C2-999EB770E6CD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="448439600"/>
+        <c:axId val="267533088"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="448439600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="267533088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="267533088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="448439600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>tiempo (ms) Residuo</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.34808333333333336"/>
+          <c:y val="4.6296296296296294E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'T(n) igual'!$B$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>tiempo (ms)Residuo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'T(n) igual'!$A$27:$A$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'T(n) igual'!$B$27:$B$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.132435</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.198652</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.29797800000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.29797800000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.43041200000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.52973800000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.56284699999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.6885</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.69528100000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EF17-444D-8379-87F860B22662}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="451946800"/>
+        <c:axId val="346961168"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="451946800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="346961168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="346961168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="451946800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -883,6 +1697,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1400,6 +2294,1038 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1984,6 +3910,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CCF6771-96DB-41AC-B4B7-2753C9EFE506}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DE69300-65D0-49C5-9809-CDC83DB37642}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2255,26 +4253,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE91E0FA-3D8F-4F8C-9DFC-5D24269AFD53}">
-  <dimension ref="A2:C11"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="C2" activeCellId="1" sqref="A2:A11 C2:C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2285,8 +4289,8 @@
         <v>9.9325899999999995E-2</v>
       </c>
       <c r="C3">
-        <f>(2*A3) + LOG(A3,2)</f>
-        <v>23.321928094887362</v>
+        <f>(A3) + LOG(A3,2)</f>
+        <v>13.321928094887362</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2297,8 +4301,8 @@
         <v>0.132435</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C11" si="0">(2*A4) + LOG(A4,2)</f>
-        <v>33.906890595608516</v>
+        <f t="shared" ref="C4:C11" si="0">(A4) + LOG(A4,2)</f>
+        <v>18.90689059560852</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2310,7 +4314,7 @@
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>44.321928094887362</v>
+        <v>24.321928094887362</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2322,7 +4326,7 @@
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>54.643856189774723</v>
+        <v>29.643856189774723</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -2334,7 +4338,7 @@
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>64.906890595608516</v>
+        <v>34.906890595608516</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -2346,7 +4350,7 @@
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>75.129283016944967</v>
+        <v>40.129283016944967</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -2358,7 +4362,7 @@
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>85.321928094887369</v>
+        <v>45.321928094887362</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -2370,7 +4374,7 @@
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>95.491853096329677</v>
+        <v>50.491853096329677</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -2382,7 +4386,180 @@
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>105.64385618977472</v>
+        <v>55.643856189774723</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>10</v>
+      </c>
+      <c r="B15">
+        <v>8.5089199999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>8.2440499999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <v>5.9595500000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>25</v>
+      </c>
+      <c r="B18">
+        <v>77.076899999999995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>30</v>
+      </c>
+      <c r="B19">
+        <v>61.780700000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>35</v>
+      </c>
+      <c r="B20">
+        <v>62.674599999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>40</v>
+      </c>
+      <c r="B21">
+        <v>66.614599999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>45</v>
+      </c>
+      <c r="B22">
+        <v>62.211100000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>50</v>
+      </c>
+      <c r="B23">
+        <v>65.356399999999994</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>10</v>
+      </c>
+      <c r="B27">
+        <v>0.132435</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>15</v>
+      </c>
+      <c r="B28">
+        <v>0.198652</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>20</v>
+      </c>
+      <c r="B29">
+        <v>0.29797800000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>25</v>
+      </c>
+      <c r="B30">
+        <v>0.29797800000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>0.43041200000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>35</v>
+      </c>
+      <c r="B32">
+        <v>0.52973800000000004</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>40</v>
+      </c>
+      <c r="B33">
+        <v>0.56284699999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>45</v>
+      </c>
+      <c r="B34">
+        <v>0.6885</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>50</v>
+      </c>
+      <c r="B35">
+        <v>0.69528100000000004</v>
       </c>
     </row>
   </sheetData>
@@ -2393,12 +4570,137 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F992386-0B86-4569-94EE-65015D07AD1E}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>9.9325899999999995E-2</v>
+      </c>
+      <c r="C3">
+        <f>(A3) + LOG(A3,2)</f>
+        <v>13.321928094887362</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>0.132435</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C11" si="0">(A4) + LOG(A4,2)</f>
+        <v>18.90689059560852</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>0.165543</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>24.321928094887362</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>25</v>
+      </c>
+      <c r="B6">
+        <v>0.26486900000000002</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>29.643856189774723</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>30</v>
+      </c>
+      <c r="B7">
+        <v>0.29797800000000002</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>34.906890595608516</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>35</v>
+      </c>
+      <c r="B8">
+        <v>0.33108599999999999</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>40.129283016944967</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>40</v>
+      </c>
+      <c r="B9">
+        <v>0.39730399999999999</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>45.321928094887362</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>45</v>
+      </c>
+      <c r="B10">
+        <v>0.39730399999999999</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>50.491853096329677</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>50</v>
+      </c>
+      <c r="B11">
+        <v>0.49662899999999999</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>55.643856189774723</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Ordenamiento recursivo.xlsx
+++ b/Ordenamiento recursivo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brayan\Downloads\T(N) ORDENAMIENTO\T(N) ORDENAMIENTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3390EC80-0178-436E-8D45-F821FDF2F13C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{723BC660-3AAD-4281-B13A-81AB91734061}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="2160" windowWidth="16200" windowHeight="9375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2160" yWindow="2160" windowWidth="16200" windowHeight="9375" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="T(n) igual" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>n</t>
   </si>
@@ -59,6 +59,12 @@
   </si>
   <si>
     <t>8-bits</t>
+  </si>
+  <si>
+    <t>tiempo (ms) RadixSort</t>
+  </si>
+  <si>
+    <t>t(n) = 10t(n/10) = 10 + log10(n)</t>
   </si>
 </sst>
 </file>
@@ -1617,6 +1623,736 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.31582633420822398"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RadixSort!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>tiempo (ms) RadixSort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>RadixSort!$A$3:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>RadixSort!$B$3:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.165543</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.23175999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.29797800000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.36419499999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.46352100000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.46352100000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.56284699999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.59595500000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.66217300000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A17C-47B6-9B2B-E5F605382357}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="331532000"/>
+        <c:axId val="454302544"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="331532000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="454302544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="454302544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="331532000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RadixSort!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>t(n) = 10t(n/10) = 10 + log10(n)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>RadixSort!$A$3:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>RadixSort!$C$3:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.176091259055681</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.301029995663981</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.397940008672037</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.477121254719663</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.544068044350276</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.602059991327963</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.653212513775344</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.698970004336019</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7DBA-4383-80C1-8E529B5B0810}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="457699568"/>
+        <c:axId val="456906944"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="457699568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="456906944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="456906944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="457699568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1777,6 +2513,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3326,6 +4142,1038 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3990,6 +5838,83 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D60978C-3403-40C4-88CE-290955C53C62}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE5DE748-1FEA-414C-BFF1-3661D47295C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -4255,7 +6180,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE91E0FA-3D8F-4F8C-9DFC-5D24269AFD53}">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
@@ -4572,13 +6497,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F992386-0B86-4569-94EE-65015D07AD1E}">
   <dimension ref="A2:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" activeCellId="1" sqref="A2:A11 C2:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -4586,10 +6512,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -4597,11 +6523,11 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>9.9325899999999995E-2</v>
+        <v>0.165543</v>
       </c>
       <c r="C3">
-        <f>(A3) + LOG(A3,2)</f>
-        <v>13.321928094887362</v>
+        <f>(10) + LOG(A3,10)</f>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -4609,11 +6535,11 @@
         <v>15</v>
       </c>
       <c r="B4">
-        <v>0.132435</v>
+        <v>0.23175999999999999</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C11" si="0">(A4) + LOG(A4,2)</f>
-        <v>18.90689059560852</v>
+        <f t="shared" ref="C4:C11" si="0">(10) + LOG(A4,10)</f>
+        <v>11.176091259055681</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -4621,11 +6547,11 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.165543</v>
+        <v>0.29797800000000002</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>24.321928094887362</v>
+        <v>11.301029995663981</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -4633,11 +6559,11 @@
         <v>25</v>
       </c>
       <c r="B6">
-        <v>0.26486900000000002</v>
+        <v>0.36419499999999999</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>29.643856189774723</v>
+        <v>11.397940008672037</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -4645,11 +6571,11 @@
         <v>30</v>
       </c>
       <c r="B7">
-        <v>0.29797800000000002</v>
+        <v>0.46352100000000002</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>34.906890595608516</v>
+        <v>11.477121254719663</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -4657,11 +6583,11 @@
         <v>35</v>
       </c>
       <c r="B8">
-        <v>0.33108599999999999</v>
+        <v>0.46352100000000002</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>40.129283016944967</v>
+        <v>11.544068044350276</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -4669,11 +6595,11 @@
         <v>40</v>
       </c>
       <c r="B9">
-        <v>0.39730399999999999</v>
+        <v>0.56284699999999999</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>45.321928094887362</v>
+        <v>11.602059991327963</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -4681,11 +6607,11 @@
         <v>45</v>
       </c>
       <c r="B10">
-        <v>0.39730399999999999</v>
+        <v>0.59595500000000001</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>50.491853096329677</v>
+        <v>11.653212513775344</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -4693,14 +6619,15 @@
         <v>50</v>
       </c>
       <c r="B11">
-        <v>0.49662899999999999</v>
+        <v>0.66217300000000001</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>55.643856189774723</v>
+        <v>11.698970004336019</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>